--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.214270920492003</v>
+        <v>1.030842333333333</v>
       </c>
       <c r="H2">
-        <v>0.214270920492003</v>
+        <v>3.092527</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7593378091926586</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7593378091926584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0861217004936</v>
+        <v>1.164453</v>
       </c>
       <c r="N2">
-        <v>1.0861217004936</v>
+        <v>3.493359</v>
       </c>
       <c r="O2">
-        <v>0.8358486892961982</v>
+        <v>0.7897445044585573</v>
       </c>
       <c r="P2">
-        <v>0.8358486892961982</v>
+        <v>0.7897445044585573</v>
       </c>
       <c r="Q2">
-        <v>0.2327242965311032</v>
+        <v>1.200367447577</v>
       </c>
       <c r="R2">
-        <v>0.2327242965311032</v>
+        <v>10.803307028193</v>
       </c>
       <c r="S2">
-        <v>0.8358486892961982</v>
+        <v>0.5996828618375026</v>
       </c>
       <c r="T2">
-        <v>0.8358486892961982</v>
+        <v>0.5996828618375025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,185 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>1.030842333333333</v>
+      </c>
+      <c r="H3">
+        <v>3.092527</v>
+      </c>
+      <c r="I3">
+        <v>0.7593378091926586</v>
+      </c>
+      <c r="J3">
+        <v>0.7593378091926584</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.310015</v>
+      </c>
+      <c r="N3">
+        <v>0.930045</v>
+      </c>
+      <c r="O3">
+        <v>0.2102554955414427</v>
+      </c>
+      <c r="P3">
+        <v>0.2102554955414428</v>
+      </c>
+      <c r="Q3">
+        <v>0.3195765859683333</v>
+      </c>
+      <c r="R3">
+        <v>2.876189273715</v>
+      </c>
+      <c r="S3">
+        <v>0.1596549473551559</v>
+      </c>
+      <c r="T3">
+        <v>0.1596549473551559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.214270920492003</v>
-      </c>
-      <c r="H3">
-        <v>0.214270920492003</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.213302123940625</v>
-      </c>
-      <c r="N3">
-        <v>0.213302123940625</v>
-      </c>
-      <c r="O3">
-        <v>0.1641513107038019</v>
-      </c>
-      <c r="P3">
-        <v>0.1641513107038019</v>
-      </c>
-      <c r="Q3">
-        <v>0.04570444243965703</v>
-      </c>
-      <c r="R3">
-        <v>0.04570444243965703</v>
-      </c>
-      <c r="S3">
-        <v>0.1641513107038019</v>
-      </c>
-      <c r="T3">
-        <v>0.1641513107038019</v>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.326712</v>
+      </c>
+      <c r="H4">
+        <v>0.980136</v>
+      </c>
+      <c r="I4">
+        <v>0.2406621908073416</v>
+      </c>
+      <c r="J4">
+        <v>0.2406621908073415</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.164453</v>
+      </c>
+      <c r="N4">
+        <v>3.493359</v>
+      </c>
+      <c r="O4">
+        <v>0.7897445044585573</v>
+      </c>
+      <c r="P4">
+        <v>0.7897445044585573</v>
+      </c>
+      <c r="Q4">
+        <v>0.380440768536</v>
+      </c>
+      <c r="R4">
+        <v>3.423966916824</v>
+      </c>
+      <c r="S4">
+        <v>0.1900616426210547</v>
+      </c>
+      <c r="T4">
+        <v>0.1900616426210547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.326712</v>
+      </c>
+      <c r="H5">
+        <v>0.980136</v>
+      </c>
+      <c r="I5">
+        <v>0.2406621908073416</v>
+      </c>
+      <c r="J5">
+        <v>0.2406621908073415</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.310015</v>
+      </c>
+      <c r="N5">
+        <v>0.930045</v>
+      </c>
+      <c r="O5">
+        <v>0.2102554955414427</v>
+      </c>
+      <c r="P5">
+        <v>0.2102554955414428</v>
+      </c>
+      <c r="Q5">
+        <v>0.10128562068</v>
+      </c>
+      <c r="R5">
+        <v>0.91157058612</v>
+      </c>
+      <c r="S5">
+        <v>0.05060054818628684</v>
+      </c>
+      <c r="T5">
+        <v>0.05060054818628684</v>
       </c>
     </row>
   </sheetData>
